--- a/INFO6205/Assignment4/Assignment4_002772160.xlsx
+++ b/INFO6205/Assignment4/Assignment4_002772160.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivanidatar/Documents/6205/PSA-Git/info6205-psa/INFO6205/Assignment4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD46801F-875D-894A-BDE1-ECA7333C80F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF004630-5DED-4445-86A3-36B4DA847116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16700" xr2:uid="{0B3556F7-AC56-5643-AF68-BCFBDFFC9E1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>N(total number of objects)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>*---- To check the relationship eqivalency -------*</t>
+  </si>
+  <si>
+    <t>c = m/n log n</t>
   </si>
 </sst>
 </file>
@@ -148,13 +151,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Relationship</a:t>
+              <a:t>Relationship between number of objects and number of pairs generated</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> between number of objects and number of pairs generated</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1082,14 +1080,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1418,7 +1416,7 @@
   <dimension ref="C3:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1444,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.2">

--- a/INFO6205/Assignment4/Assignment4_002772160.xlsx
+++ b/INFO6205/Assignment4/Assignment4_002772160.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivanidatar/Documents/6205/PSA-Git/info6205-psa/INFO6205/Assignment4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF004630-5DED-4445-86A3-36B4DA847116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD5BB8E-12DD-7A44-944E-82B0F7947590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16700" xr2:uid="{0B3556F7-AC56-5643-AF68-BCFBDFFC9E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$16</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$17:$C$25</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$17:$D$25</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">Sheet1!$C$16</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Sheet1!$C$17:$C$25</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$D$16</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$D$17:$D$25</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -360,8 +370,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -497,7 +508,432 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> log n VS M</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>n log n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32687</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>164049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>381878</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>784233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1535820</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$17:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6602.0599913279621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14408.23996531185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31224.719895935552</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67265.9197224948</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144164.79930623699</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>307595.51833496883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>653722.87611492723</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1384509.4311198334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2A8-754C-B433-0A7CEF5E4CC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="622218447"/>
+        <c:axId val="622220095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="622218447"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622220095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="622220095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="622218447"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1075,6 +1511,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1108,6 +2082,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1631950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F7F769-415C-4D60-3CF3-249C5BE8797C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1415,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DBBADD-CB4A-5D49-A1E2-AB0858A6118D}">
   <dimension ref="C3:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
